--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LŨY KẾ NGÀY" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DAONH SỐ CÁ NHÂN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CHI TIÊU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,6 +416,283 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>507</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tiềm cằm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Nana</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>511</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nguyễn ngọc trinh</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="I3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -616,7 +894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -707,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DAONH SỐ CÁ NHÂN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CHI TIÊU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="LŨY KẾ NGÀY" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CHI TIẾT CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CHI TIÊU TỔNG HỢP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,17 +428,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Tiền tố</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -529,16 +530,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>507</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -609,16 +610,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>511</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>07-02-2024</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -688,6 +689,309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã chi tiêu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày chi</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Phân loại</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>572</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>574</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>575</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>576</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>583</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1280000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>593</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-04-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>597</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>598</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>365000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -894,7 +1198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,7 +1289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,48 @@
       <c r="T3" t="n">
         <v/>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -694,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,6 +1026,22 @@
       </c>
       <c r="F10" t="n">
         <v>365000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>9335000</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,6 +1392,11 @@
           <t>Lượng chi</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lũy kế ngày</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1356,6 +1419,9 @@
       <c r="F2" t="n">
         <v>6800000</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3800000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1378,6 +1444,9 @@
       <c r="F3" t="n">
         <v>530000</v>
       </c>
+      <c r="G3" t="n">
+        <v>1770000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1400,6 +1469,9 @@
       <c r="F4" t="n">
         <v>1280000</v>
       </c>
+      <c r="G4" t="n">
+        <v>-1280000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1422,6 +1494,9 @@
       <c r="F5" t="n">
         <v>40000</v>
       </c>
+      <c r="G5" t="n">
+        <v>-40000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1444,6 +1519,9 @@
       <c r="F6" t="n">
         <v>685000</v>
       </c>
+      <c r="G6" t="n">
+        <v>-685000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1465,6 +1543,9 @@
       </c>
       <c r="F7" t="n">
         <v>9335000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-4035000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,46 +684,678 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>530</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Võ thị nga</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>533</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diễm hương</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>536</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diệu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>540</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Thuỳ dương</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>542</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Huỳnh thị bé sáu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>543</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kiều tiên</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>551</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kim anh</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>555</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nguyễn thị hồng cúc</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>38150000</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>38150000</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>34650000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>35150000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -736,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +1415,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -797,11 +1429,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="3">
@@ -811,11 +1443,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -825,11 +1457,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1800000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="4">
@@ -839,7 +1471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -857,7 +1489,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>400000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5">
@@ -867,7 +1499,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -885,7 +1517,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6">
@@ -895,11 +1527,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-03-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -909,11 +1541,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>1280000</v>
       </c>
     </row>
     <row r="7">
@@ -923,11 +1555,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-04-2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -937,11 +1569,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1280000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="8">
@@ -951,11 +1583,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -965,11 +1597,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="9">
@@ -979,7 +1611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -993,11 +1625,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>320000</v>
+        <v>365000</v>
       </c>
     </row>
     <row r="10">
@@ -1007,11 +1639,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1021,27 +1653,279 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>365000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>619</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>629</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>630</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>631</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>632</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>633</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>634</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>649</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>652</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tiền Thuế</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5985000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>9335000</v>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>16537000</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,17 +2002,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11500000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1146,17 +2030,17 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>800000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1168,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1186,17 +2070,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1220,35 +2104,239 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23850000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18650000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>800000</v>
+      <c r="B11" t="n">
+        <v>34150000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38150000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3300000</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +2350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,7 +2377,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3080000</v>
+        <v>4580000</v>
       </c>
     </row>
     <row r="3">
@@ -1299,47 +2387,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>895000</v>
+        <v>1504000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Tiền Thuế</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40000</v>
+        <v>5985000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5320000</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4320000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9335000</v>
+      <c r="B8" t="n">
+        <v>16537000</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +2451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6800000</v>
+        <v>1800000</v>
       </c>
       <c r="G2" t="n">
-        <v>-3800000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="3">
@@ -1526,26 +2624,251 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>108000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1392000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13300000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10800000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6020000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4780000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>89000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6911000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5985000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-5985000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>800000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9335000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-4035000</v>
+      <c r="B16" t="n">
+        <v>38150000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34650000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16537000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21413000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,6 +616,12 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -682,6 +698,12 @@
       <c r="T3" t="n">
         <v/>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -762,6 +784,12 @@
       <c r="T4" t="n">
         <v/>
       </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -842,6 +870,12 @@
       <c r="T5" t="n">
         <v/>
       </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -920,6 +954,12 @@
       <c r="T6" t="n">
         <v/>
       </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -996,6 +1036,12 @@
       <c r="T7" t="n">
         <v/>
       </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1076,6 +1122,12 @@
       <c r="T8" t="n">
         <v/>
       </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1154,6 +1206,12 @@
       <c r="T9" t="n">
         <v/>
       </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1234,6 +1292,12 @@
       <c r="T10" t="n">
         <v/>
       </c>
+      <c r="U10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1313,6 +1377,12 @@
       </c>
       <c r="T11" t="n">
         <v/>
+      </c>
+      <c r="U11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1356,6 +1426,12 @@
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>250000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1368,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,17 +1991,45 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>661</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>16537000</v>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>16617000</v>
       </c>
     </row>
   </sheetData>
@@ -1955,12 +2059,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Doanh số sale chính</t>
+          <t>Tổng đơn giá sale vòng 1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doanh số upsale</t>
+          <t>Tổng đơn giá vòng upsale</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2012,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11500000</v>
+        <v>9000000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2114,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4000000</v>
+        <v>3500000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2318,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>38150000</v>
+        <v>35150000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2387,7 +2491,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1504000</v>
+        <v>1584000</v>
       </c>
     </row>
     <row r="4">
@@ -2437,7 +2541,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16537000</v>
+        <v>16617000</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2849,26 +2953,51 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-80000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>38150000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>34650000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E17" t="n">
         <v>3300000</v>
       </c>
-      <c r="F16" t="n">
-        <v>16537000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21413000</v>
+      <c r="F17" t="n">
+        <v>16617000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21333000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -1444,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2019,73 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>668</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>417000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>669</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>16617000</v>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>17134000</v>
       </c>
     </row>
   </sheetData>
@@ -2491,7 +2547,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1584000</v>
+        <v>1684000</v>
       </c>
     </row>
     <row r="4">
@@ -2511,7 +2567,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148000</v>
+        <v>565000</v>
       </c>
     </row>
     <row r="6">
@@ -2541,7 +2597,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16617000</v>
+        <v>17134000</v>
       </c>
     </row>
   </sheetData>
@@ -2555,7 +2611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2978,26 +3034,51 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>517000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-517000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>38150000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>34650000</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" t="n">
         <v>3300000</v>
       </c>
-      <c r="F17" t="n">
-        <v>16617000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>21333000</v>
+      <c r="F18" t="n">
+        <v>17134000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20816000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,50 +1386,132 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>573</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kim yến</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>38150000</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>38150000</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>34650000</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>40150000</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>40150000</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>36650000</v>
+      </c>
+      <c r="P13" t="n">
         <v>500000</v>
       </c>
-      <c r="Q12" t="n">
-        <v>35150000</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q13" t="n">
+        <v>37150000</v>
+      </c>
+      <c r="R13" t="n">
         <v>3000000</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
         <v>250000</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2444,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18650000</v>
+        <v>20650000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2478,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>35150000</v>
+        <v>37150000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2611,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3059,26 +3141,51 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>38150000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>34650000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="B19" t="n">
+        <v>40150000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>36650000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
         <v>3300000</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F19" t="n">
         <v>17134000</v>
       </c>
-      <c r="G18" t="n">
-        <v>20816000</v>
+      <c r="G19" t="n">
+        <v>22816000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,50 +1468,136 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>574</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Trần thị mỹ duyên</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>40150000</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>40150000</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>36650000</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>45150000</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>45150000</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>41650000</v>
+      </c>
+      <c r="P14" t="n">
         <v>500000</v>
       </c>
-      <c r="Q13" t="n">
-        <v>37150000</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q14" t="n">
+        <v>42150000</v>
+      </c>
+      <c r="R14" t="n">
         <v>3000000</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>250000</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>300000</v>
+      </c>
+      <c r="V14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2356,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3500000</v>
+        <v>8500000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2384,7 +2470,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23850000</v>
+        <v>28850000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2498,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2554,22 +2640,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34150000</v>
+        <v>39150000</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37150000</v>
+        <v>42150000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2693,7 +2779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3166,26 +3252,51 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>40150000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>36650000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="B20" t="n">
+        <v>45150000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>41650000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="n">
         <v>3300000</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>17134000</v>
       </c>
-      <c r="G19" t="n">
-        <v>22816000</v>
+      <c r="G20" t="n">
+        <v>27816000</v>
       </c>
     </row>
   </sheetData>
